--- a/src/main/resources/Book1.xlsx
+++ b/src/main/resources/Book1.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Mr. juwss yxmnk</t>
+    <t>mjyes agkch</t>
   </si>
   <si>
-    <t>0030K00001LPoMJ</t>
+    <t>0030K00001MJ4wAQAT</t>
   </si>
 </sst>
 </file>
